--- a/tpn/tools/xlsx2data/data/item.xlsx
+++ b/tpn/tools/xlsx2data/data/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Item" sheetId="1" r:id="rId1"/>
@@ -22,26 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>id@ui32@!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type@ui32@*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_type@ui32@*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name@str@*@c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quality@ui32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +60,18 @@
   <si>
     <t>道具D</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id@u32@!</t>
+  </si>
+  <si>
+    <t>type@u32@*</t>
+  </si>
+  <si>
+    <t>sub_type@u32@*</t>
+  </si>
+  <si>
+    <t>quality@u32</t>
   </si>
 </sst>
 </file>
@@ -421,70 +417,70 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -495,13 +491,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -512,13 +508,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -529,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -538,11 +534,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="C1" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId1" display="id@ui32@!"/>
+    <hyperlink ref="B1" r:id="rId2" display="type@ui32@*"/>
+    <hyperlink ref="C1" r:id="rId3" display="sub_type@ui32@*"/>
     <hyperlink ref="D1" r:id="rId4"/>
-    <hyperlink ref="E1" r:id="rId5"/>
+    <hyperlink ref="E1" r:id="rId5" display="quality@ui32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -557,7 +553,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
